--- a/app/config/tables/MASKAGAIN/Forms/MASKAGAIN/MASKAGAIN.xlsx
+++ b/app/config/tables/MASKAGAIN/Forms/MASKAGAIN/MASKAGAIN.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C83903-BB24-4A0B-A7B4-DACBCB0DA092}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC660683-9CAE-4E59-ACA3-C1873483A50B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-15480" yWindow="-9915" windowWidth="15600" windowHeight="19440" activeTab="3" xr2:uid="{61CD3858-EC0C-4BBF-AEC7-9F92E057943A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{61CD3858-EC0C-4BBF-AEC7-9F92E057943A}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="174">
   <si>
     <t>setting_name</t>
   </si>
@@ -151,9 +151,6 @@
     <t>select_one</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>display.adate.helperText</t>
   </si>
   <si>
@@ -193,12 +190,6 @@
     <t>NOME</t>
   </si>
   <si>
-    <t>SEX</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
     <t>TABZ</t>
   </si>
   <si>
@@ -214,24 +205,9 @@
     <t>ONDE</t>
   </si>
   <si>
-    <t>TELE1</t>
-  </si>
-  <si>
-    <t>TELE2</t>
-  </si>
-  <si>
-    <t>NOVONUM1</t>
-  </si>
-  <si>
-    <t>NOVONUM2</t>
-  </si>
-  <si>
     <t>MASC</t>
   </si>
   <si>
-    <t>HHOID</t>
-  </si>
-  <si>
     <t>BAIRRO</t>
   </si>
   <si>
@@ -244,15 +220,6 @@
     <t>FNO</t>
   </si>
   <si>
-    <t>fno id</t>
-  </si>
-  <si>
-    <t>POID</t>
-  </si>
-  <si>
-    <t>IDOID</t>
-  </si>
-  <si>
     <t>DATEX</t>
   </si>
   <si>
@@ -271,96 +238,18 @@
     <t>PREENCHIDO</t>
   </si>
   <si>
-    <t>COBERTURA</t>
-  </si>
-  <si>
-    <t>VARANDA</t>
-  </si>
-  <si>
-    <t>TECTO</t>
-  </si>
-  <si>
-    <t>FONTE</t>
-  </si>
-  <si>
-    <t>INFO_COVID</t>
-  </si>
-  <si>
-    <t>Other variables</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>NOMEMAE</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>REGDIA</t>
-  </si>
-  <si>
-    <t>regida</t>
-  </si>
-  <si>
-    <t>XDIA</t>
-  </si>
-  <si>
-    <t>xdia</t>
-  </si>
-  <si>
-    <t>ROOM</t>
-  </si>
-  <si>
-    <t>room</t>
-  </si>
-  <si>
-    <t>BED</t>
-  </si>
-  <si>
-    <t>bed</t>
-  </si>
-  <si>
     <t>DUPLO</t>
   </si>
   <si>
     <t>ACCEPT</t>
   </si>
   <si>
-    <t>TELE1_VERI</t>
-  </si>
-  <si>
-    <t>TELE2_VERI</t>
-  </si>
-  <si>
-    <t>TELEOU_VERI</t>
-  </si>
-  <si>
     <t>RECEB_QUEM</t>
   </si>
   <si>
-    <t>INTENCAO</t>
-  </si>
-  <si>
-    <t>QUANDO</t>
-  </si>
-  <si>
-    <t>MOTIVO</t>
-  </si>
-  <si>
-    <t>OBS_IDADE</t>
-  </si>
-  <si>
-    <t>obs age</t>
-  </si>
-  <si>
     <t>MASKAGAIN</t>
   </si>
   <si>
@@ -370,36 +259,6 @@
     <t>assign</t>
   </si>
   <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>now()</t>
-  </si>
-  <si>
-    <t>adate.today()</t>
-  </si>
-  <si>
-    <t>Date of inclusion</t>
-  </si>
-  <si>
-    <t>Data de inclusão</t>
-  </si>
-  <si>
-    <t>ASSISTENTE</t>
-  </si>
-  <si>
-    <t>Nome de assistente</t>
-  </si>
-  <si>
-    <t>DATSEG</t>
-  </si>
-  <si>
-    <t>Name of assistant</t>
-  </si>
-  <si>
-    <t>{{PERSON}} Está aqui?</t>
-  </si>
-  <si>
     <t>YesNoDontknow</t>
   </si>
   <si>
@@ -472,21 +331,15 @@
     <t>Duplo</t>
   </si>
   <si>
-    <t>AQUI</t>
-  </si>
-  <si>
-    <t>data("AQUI") == 1</t>
-  </si>
-  <si>
     <t>end if</t>
   </si>
   <si>
-    <t>else</t>
-  </si>
-  <si>
     <t>Vital status</t>
   </si>
   <si>
+    <t>Estado</t>
+  </si>
+  <si>
     <t>data("ESTADO") == "2" || data("ESTADO") == "3" || data("ESTADO") == "5"</t>
   </si>
   <si>
@@ -529,6 +382,12 @@
     <t>Igual a quem?</t>
   </si>
   <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>Aceitou</t>
+  </si>
+  <si>
     <t>Mask</t>
   </si>
   <si>
@@ -625,9 +484,6 @@
     <t>Não aplicavel</t>
   </si>
   <si>
-    <t>Aonde está?</t>
-  </si>
-  <si>
     <t>Assistant</t>
   </si>
   <si>
@@ -697,10 +553,10 @@
     <t>Não sabe a data</t>
   </si>
   <si>
-    <t>Recebeu mascara facial de pano certificado?</t>
-  </si>
-  <si>
-    <t>WHAT CONDITIONS</t>
+    <t>Recebeu uma mascara facial de pano certificado?</t>
+  </si>
+  <si>
+    <t>(data("ESTADO") == "1" || data("ESTADO") == "4" || data("ESTADO") == "5"  || data("ESTADO") == "99") &amp;&amp; data("RANGROUP") == 2</t>
   </si>
 </sst>
 </file>
@@ -797,7 +653,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -811,7 +667,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1143,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,7 +1014,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1168,10 +1023,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1206,10 +1061,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1223,32 +1078,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="12" customWidth="1"/>
-    <col min="4" max="4" width="22" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="41" style="12" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="33.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="41" style="11" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1270,7 +1125,7 @@
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1280,412 +1135,303 @@
         <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3"/>
-      <c r="C3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3"/>
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
       <c r="F3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5"/>
-      <c r="C5"/>
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5"/>
       <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
         <v>118</v>
       </c>
-      <c r="G5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
         <v>119</v>
       </c>
-      <c r="H6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+    </row>
+    <row r="25" spans="2:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="12" t="str">
-        <f>"1"</f>
+    <row r="28" spans="2:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+      <c r="N29" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>149</v>
-      </c>
-      <c r="H16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18" t="s">
-        <v>152</v>
-      </c>
-      <c r="M18" s="12"/>
-      <c r="O18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" t="s">
-        <v>159</v>
-      </c>
-      <c r="H24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32"/>
-      <c r="B32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="B33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" t="s">
-        <v>165</v>
-      </c>
-      <c r="H35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" t="s">
-        <v>168</v>
-      </c>
-      <c r="G37" t="s">
-        <v>169</v>
-      </c>
-      <c r="H37" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
-    </row>
-    <row r="41" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E42" t="s">
-        <v>173</v>
-      </c>
-      <c r="F42" t="s">
-        <v>102</v>
-      </c>
-      <c r="N42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1746,7 +1492,9 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1772,47 +1520,47 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="B4" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1821,62 +1569,62 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="B6" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="B7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="B8" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="B9" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1885,107 +1633,107 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="B11" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="B12" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="B13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="B14" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="B15" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="B16" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="B17" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1993,247 +1741,247 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B19" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B20" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B21" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B22" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B23" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="D28" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="D33" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="B36" t="str">
         <f>"D:NS,M:NS,Y:NS"</f>
         <v>D:NS,M:NS,Y:NS</v>
       </c>
       <c r="C36" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="D36" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="B37" t="str">
         <f>"D:1,M:1,Y:1955"</f>
         <v>D:1,M:1,Y:1955</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2039,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -2309,7 +2057,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -2338,10 +2086,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -2350,10 +2098,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -2362,10 +2110,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -2374,10 +2122,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -2386,10 +2134,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -2398,16 +2146,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2418,7 +2166,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -2430,10 +2178,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -2448,62 +2196,40 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
       <c r="D13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
       <c r="D14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
       <c r="D15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
       <c r="D16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,219 +2239,93 @@
       <c r="D17"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>84</v>
-      </c>
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>107</v>
-      </c>
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
       <c r="D22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
       <c r="D23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>86</v>
-      </c>
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>88</v>
-      </c>
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>90</v>
-      </c>
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>92</v>
-      </c>
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>94</v>
-      </c>
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>96</v>
-      </c>
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
       <c r="D33"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" t="b">
-        <v>0</v>
-      </c>
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
       <c r="D34"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2735,123 +2335,63 @@
       <c r="D35"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="b">
-        <v>0</v>
-      </c>
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
       <c r="D36"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" t="b">
-        <v>0</v>
-      </c>
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
       <c r="D37"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
       <c r="D38"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" t="b">
-        <v>0</v>
-      </c>
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
       <c r="D39"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
       <c r="D40"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" t="b">
-        <v>0</v>
-      </c>
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
       <c r="D41"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" t="b">
-        <v>0</v>
-      </c>
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
       <c r="D42"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
       <c r="D43"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" t="b">
-        <v>0</v>
-      </c>
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
       <c r="D44"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" t="b">
-        <v>0</v>
-      </c>
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
       <c r="D45"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2861,63 +2401,18 @@
       <c r="D46"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" t="b">
-        <v>0</v>
-      </c>
       <c r="D47"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" t="b">
-        <v>0</v>
-      </c>
       <c r="D48"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" t="b">
-        <v>0</v>
-      </c>
       <c r="D49"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" t="b">
-        <v>0</v>
-      </c>
       <c r="D50"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" t="b">
-        <v>0</v>
-      </c>
       <c r="D51"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2936,9 +2431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F576EDEB-35D0-4BA2-8B9E-C05422E5FB47}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C11:C12"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -2957,86 +2452,86 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>180</v>
+        <v>128</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="H3" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/MASKAGAIN/Forms/MASKAGAIN/MASKAGAIN.xlsx
+++ b/app/config/tables/MASKAGAIN/Forms/MASKAGAIN/MASKAGAIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9071506E-D4D2-4473-A6CD-55B21F635CB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC6FC1F-DE28-4BEF-AC89-C0F5BD9040A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="230">
   <si>
     <t>setting_name</t>
   </si>
@@ -718,18 +718,6 @@
   </si>
   <si>
     <t>data("ESTADO") != null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data("DATASAI") != null || data("ESTADO") == "1" || data("ESTADO") == "4" || data("ESTADO") == "6" || data("ESTADO") == "8" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">data("ACCEPT") != null || data("RANGROUP") != 2 || data("ESTADO") == "2" || data("ESTADO") == "3" || data("ESTADO") == "6" || data("ESTADO") == "8" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">data("MASC") != null || data("RANGROUP") != 2 || data("ESTADO") == "2" || data("ESTADO") == "3" || data("ESTADO") == "6" || data("ESTADO") == "8" </t>
-  </si>
-  <si>
-    <t>data("DUPLO") != null || data("ESTADO") != "8"</t>
   </si>
   <si>
     <t>Remember to use masks and wash hands</t>
@@ -1260,9 +1248,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,9 +1574,6 @@
       <c r="H27" t="s">
         <v>97</v>
       </c>
-      <c r="J27" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="28" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
@@ -1678,9 +1663,6 @@
       <c r="H37" t="s">
         <v>108</v>
       </c>
-      <c r="J37" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="38" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -1721,9 +1703,6 @@
       <c r="H42" t="s">
         <v>110</v>
       </c>
-      <c r="J42" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="43" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
@@ -1752,9 +1731,6 @@
       <c r="H45" t="s">
         <v>163</v>
       </c>
-      <c r="J45" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="46" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -1806,10 +1782,10 @@
         <v>166</v>
       </c>
       <c r="G52" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H52" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="2:17" customFormat="1" x14ac:dyDescent="0.25">

--- a/app/config/tables/MASKAGAIN/Forms/MASKAGAIN/MASKAGAIN.xlsx
+++ b/app/config/tables/MASKAGAIN/Forms/MASKAGAIN/MASKAGAIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC6FC1F-DE28-4BEF-AC89-C0F5BD9040A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFE5653-E4CB-4901-ACCB-0F1705790BEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="225">
   <si>
     <t>setting_name</t>
   </si>
@@ -240,9 +240,6 @@
     <t>ACCEPT</t>
   </si>
   <si>
-    <t>RECEB_QUEM</t>
-  </si>
-  <si>
     <t>MASKAGAIN</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>data("ESTADO") == "2" || data("ESTADO") == "3" || data("ESTADO") == "5"</t>
-  </si>
-  <si>
     <t>When?</t>
   </si>
   <si>
@@ -345,9 +339,6 @@
     <t>data("datasains")</t>
   </si>
   <si>
-    <t>data("ESTADO") == "2" || data("ESTADO") == "5"</t>
-  </si>
-  <si>
     <t>Where?</t>
   </si>
   <si>
@@ -375,24 +366,9 @@
     <t>Provided with a mask?</t>
   </si>
   <si>
-    <t>data("MASC") == "2"</t>
-  </si>
-  <si>
     <t>persons</t>
   </si>
   <si>
-    <t>id_RECEB_QUEM</t>
-  </si>
-  <si>
-    <t>Who?</t>
-  </si>
-  <si>
-    <t>Quem?</t>
-  </si>
-  <si>
-    <t>data("id_RECEB_QUEM") != null</t>
-  </si>
-  <si>
     <t>async_assign_single_string</t>
   </si>
   <si>
@@ -678,9 +654,6 @@
     <t>Quarto: &lt;b&gt;{{data.ROOM}}&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Cama: C:&lt;b&gt;{{data.BED}}&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Grupo de estudo: &lt;b&gt;Intervenção&lt;/b&gt;</t>
   </si>
   <si>
@@ -702,9 +675,6 @@
     <t>Room: &lt;b&gt;{{data.ROOM}}&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Bed: &lt;b&gt;{{data.BED}}&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Group in study: &lt;b&gt;Intervention&lt;/b&gt;</t>
   </si>
   <si>
@@ -720,10 +690,25 @@
     <t>data("ESTADO") != null</t>
   </si>
   <si>
-    <t>Remember to use masks and wash hands</t>
-  </si>
-  <si>
-    <t>Lembre-se de usar máscaras e lavar as mãos</t>
+    <t xml:space="preserve">data("ESTADO") == "2" || data("ESTADO") == "3" </t>
+  </si>
+  <si>
+    <t>data("ESTADO") == "3"</t>
+  </si>
+  <si>
+    <t>CAUSA</t>
+  </si>
+  <si>
+    <t>Cause of death?</t>
+  </si>
+  <si>
+    <t>Qual foi a causa do morte?</t>
+  </si>
+  <si>
+    <t>Id: {{data.ID}}</t>
+  </si>
+  <si>
+    <t>data("ESTADO") == "2"</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1182,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1191,10 +1176,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1246,11 +1231,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,7 +1310,7 @@
         <v>63</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
@@ -1335,319 +1320,315 @@
     </row>
     <row r="3" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H4" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="H6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G8" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="H8" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G10" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H10" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G11" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H11" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
         <v>166</v>
       </c>
-      <c r="G12" t="s">
-        <v>221</v>
-      </c>
-      <c r="H12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" t="s">
-        <v>222</v>
-      </c>
-      <c r="H13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G15" t="s">
-        <v>223</v>
-      </c>
-      <c r="H15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17" t="s">
-        <v>224</v>
-      </c>
-      <c r="H17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>40</v>
+      <c r="G20" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>30</v>
       </c>
-      <c r="F21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G21" t="s">
-        <v>171</v>
-      </c>
-      <c r="H21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="H26" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>30</v>
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
         <v>98</v>
       </c>
-      <c r="E28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" t="s">
-        <v>100</v>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>92</v>
-      </c>
-    </row>
+        <v>220</v>
+      </c>
+      <c r="G30" t="s">
+        <v>221</v>
+      </c>
+      <c r="H30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" t="s">
-        <v>105</v>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>92</v>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1655,177 +1636,131 @@
         <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H37" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>40</v>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" t="s">
-        <v>109</v>
-      </c>
-      <c r="H42" t="s">
-        <v>110</v>
+      <c r="B42" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>41</v>
       </c>
-      <c r="J43" s="11"/>
     </row>
     <row r="44" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
+    <row r="46" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
         <v>37</v>
       </c>
-      <c r="E45" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" t="s">
-        <v>112</v>
-      </c>
-      <c r="H45" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" t="s">
-        <v>113</v>
+      <c r="E46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
+        <v>106</v>
+      </c>
+      <c r="H46" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" t="s">
-        <v>114</v>
-      </c>
-      <c r="F47" t="s">
-        <v>115</v>
-      </c>
-      <c r="G47" t="s">
-        <v>116</v>
-      </c>
-      <c r="H47" t="s">
-        <v>117</v>
-      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" s="11"/>
     </row>
     <row r="48" spans="2:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" t="s">
+        <v>109</v>
+      </c>
+      <c r="H49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="2:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="2:17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="2:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>166</v>
-      </c>
-      <c r="G52" t="s">
-        <v>228</v>
-      </c>
-      <c r="H52" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="53" spans="2:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="2:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" t="s">
-        <v>120</v>
-      </c>
-      <c r="F54" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="2:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="2:17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="11"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1866,254 +1801,254 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
         <v>140</v>
       </c>
-      <c r="B5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" t="s">
-        <v>148</v>
-      </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D17" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2122,107 +2057,107 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
         <v>80</v>
-      </c>
-      <c r="D22" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
         <v>82</v>
-      </c>
-      <c r="D23" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
         <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
         <v>86</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
         <v>88</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
         <v>90</v>
-      </c>
-      <c r="D27" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2230,107 +2165,107 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29" t="str">
         <f>"D:NS,M:NS,Y:NS"</f>
         <v>D:NS,M:NS,Y:NS</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
         <v>72</v>
-      </c>
-      <c r="D31" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
         <v>74</v>
-      </c>
-      <c r="D32" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
         <v>76</v>
-      </c>
-      <c r="D33" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B35" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
         <v>72</v>
-      </c>
-      <c r="D35" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B36" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2392,83 +2327,83 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I3" t="s">
         <v>60</v>
@@ -2504,18 +2439,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2575,7 +2510,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -2592,11 +2527,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2696,7 +2631,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
@@ -2707,7 +2642,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
         <v>48</v>
@@ -2730,7 +2665,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>48</v>
@@ -2742,7 +2677,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>49</v>
@@ -2753,7 +2688,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>30</v>
@@ -2764,7 +2699,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>48</v>
@@ -2787,7 +2722,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>48</v>
@@ -2798,7 +2733,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>48</v>
@@ -2835,7 +2770,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>30</v>
@@ -2884,10 +2819,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -2908,7 +2843,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s">
         <v>48</v>
@@ -2916,13 +2851,14 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
+      <c r="D28"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2930,7 +2866,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
@@ -2938,36 +2874,29 @@
       <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D30"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" t="b">
-        <v>0</v>
-      </c>
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
-      <c r="D33"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34"/>
@@ -3018,11 +2947,9 @@
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
+      <c r="D43"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
       <c r="D44"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3038,13 +2965,10 @@
       <c r="D48"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
       <c r="D49"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
